--- a/Recuperação de Informação/qp3.xlsx
+++ b/Recuperação de Informação/qp3.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\OneDrive\Documentos\Faculdade\5Periodo\5Periodo\Recuperação de Informação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\Documents\5Periodo\Recuperação de Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF97FC8B-E9E6-471B-9276-A635EDB910B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7B47D-360B-4CA0-9C92-DD6C3E0CE1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="4545" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{FFC075E2-A563-41CD-A91A-389133AB37CC}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{FFC075E2-A563-41CD-A91A-389133AB37CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
+    <sheet name="ex9" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>d1</t>
   </si>
@@ -139,12 +142,48 @@
   <si>
     <t>d29</t>
   </si>
+  <si>
+    <t>P@5</t>
+  </si>
+  <si>
+    <t>P@10</t>
+  </si>
+  <si>
+    <t>P@15</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Ra1</t>
+  </si>
+  <si>
+    <t>Ra2</t>
+  </si>
+  <si>
+    <t>sa1</t>
+  </si>
+  <si>
+    <t>sa2</t>
+  </si>
+  <si>
+    <t>sa1-sa2</t>
+  </si>
+  <si>
+    <t>(sa1-sa2)2</t>
+  </si>
+  <si>
+    <t>Soma dos quadrados</t>
+  </si>
+  <si>
+    <t>Spearman</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +198,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +248,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,11 +264,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,8 +286,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -700,7 +787,7 @@
                   <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1354,7 +1441,7 @@
                   <c:v>0.24666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.19333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.18333333333333335</c:v>
@@ -4244,17 +4331,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCB2CF8-F23C-4134-962C-281E6563B2F8}">
   <dimension ref="A4:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4280,7 +4370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4306,7 +4396,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4332,7 +4422,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4358,7 +4448,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4384,7 +4474,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="2">
         <v>40</v>
       </c>
@@ -4392,7 +4482,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="2">
         <v>50</v>
       </c>
@@ -4400,7 +4490,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H11" s="2">
         <v>60</v>
       </c>
@@ -4408,7 +4505,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9">
+        <v>0.3</v>
+      </c>
       <c r="H12" s="2">
         <v>70</v>
       </c>
@@ -4416,7 +4520,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H13" s="2">
         <v>80</v>
       </c>
@@ -4424,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="2">
         <v>90</v>
       </c>
@@ -4432,7 +4543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10">
+        <f>(0.33+0.25+0.3)/6</f>
+        <v>0.1466666666666667</v>
+      </c>
       <c r="H15" s="2">
         <v>100</v>
       </c>
@@ -4441,9 +4560,20 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{6333CEF8-78C6-4427-A4F9-83C8EC8E18F6}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{2C7B6E2F-DAB0-4494-836C-DCFC0BCE8BC9}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{E58A6B97-3517-488A-A64C-BB1DE5E81BC9}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4452,18 +4582,18 @@
   <dimension ref="A4:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4489,7 +4619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4515,7 +4645,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4541,7 +4671,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4567,7 +4697,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4593,15 +4723,15 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="2">
         <v>40</v>
       </c>
       <c r="I9" s="4">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="2">
         <v>50</v>
       </c>
@@ -4609,7 +4739,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H11" s="2">
         <v>60</v>
       </c>
@@ -4617,7 +4754,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H12" s="2">
         <v>70</v>
       </c>
@@ -4625,7 +4769,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H13" s="2">
         <v>80</v>
       </c>
@@ -4633,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="2">
         <v>90</v>
       </c>
@@ -4641,7 +4792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10">
+        <f>(0.25+0.21)/8</f>
+        <v>5.7499999999999996E-2</v>
+      </c>
       <c r="H15" s="2">
         <v>100</v>
       </c>
@@ -4650,9 +4809,20 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{42A51939-F09B-4FA8-9690-E290377C2520}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{3A30B6A1-E2EB-4573-8F0A-1537125D9AAD}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{BD01AA5E-5063-4AAA-82FF-CBC428BAEBAC}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4661,18 +4831,18 @@
   <dimension ref="A4:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4698,7 +4868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4724,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4750,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4776,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4802,7 +4972,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="2">
         <v>40</v>
       </c>
@@ -4810,7 +4980,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H10" s="2">
         <v>50</v>
       </c>
@@ -4818,7 +4988,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H11" s="2">
         <v>60</v>
       </c>
@@ -4826,7 +5003,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9">
+        <v>0.2</v>
+      </c>
       <c r="H12" s="2">
         <v>70</v>
       </c>
@@ -4834,7 +5018,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
+        <v>0.26</v>
+      </c>
       <c r="H13" s="2">
         <v>80</v>
       </c>
@@ -4842,7 +5033,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H14" s="2">
         <v>90</v>
       </c>
@@ -4850,7 +5041,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10">
+        <f>(1+0.28+0.25+0.3)/5</f>
+        <v>0.36599999999999999</v>
+      </c>
       <c r="H15" s="2">
         <v>100</v>
       </c>
@@ -4859,26 +5058,37 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{6FBB2722-5C45-4449-A779-E9BDDC0D7407}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{68FF4D7B-B05D-4898-BD73-D0D67A7073A6}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{10C2E37D-D7A1-4E91-ADB0-0023D2DCD0FE}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF76B8-A173-46D5-9111-5DC03C1A7AFD}">
-  <dimension ref="B3:C14"/>
+  <dimension ref="B3:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -4886,7 +5096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -4895,7 +5105,7 @@
         <v>0.52666666666666673</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>10</v>
       </c>
@@ -4904,7 +5114,7 @@
         <v>0.52666666666666673</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>20</v>
       </c>
@@ -4913,7 +5123,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>30</v>
       </c>
@@ -4922,16 +5132,16 @@
         <v>0.24666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>40</v>
       </c>
       <c r="C8" s="4">
         <f>(Planilha3!I9+Planilha2!I9+Planilha1!I9)/3</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>0.19333333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>50</v>
       </c>
@@ -4940,7 +5150,7 @@
         <v>0.18333333333333335</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>60</v>
       </c>
@@ -4949,7 +5159,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>70</v>
       </c>
@@ -4958,7 +5168,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>80</v>
       </c>
@@ -4967,7 +5177,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>90</v>
       </c>
@@ -4976,17 +5186,339 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>100</v>
       </c>
       <c r="C14" s="4">
         <f>(Planilha3!I15+Planilha2!I15+Planilha1!I15)/3</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(Planilha3!D15+Planilha2!D15+Planilha1!D15+1)/3</f>
+        <v>0.5233888888888889</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1055C81-5B2D-48C5-A0AB-681E84BED806}">
+  <dimension ref="C2:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f>H5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f>J5*J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J14" si="0">H6-I6</f>
+        <v>-6</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K14" si="1">J6*J6</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="12">
+        <f>SUM(K5:K14)</f>
+        <v>122</v>
+      </c>
+      <c r="M15">
+        <f>1-((6*K15)/(10*(100-1)))</f>
+        <v>0.26060606060606062</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>